--- a/biology/Médecine/Dérivation_ventriculo-péritonéale/Dérivation_ventriculo-péritonéale.xlsx
+++ b/biology/Médecine/Dérivation_ventriculo-péritonéale/Dérivation_ventriculo-péritonéale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9rivation_ventriculo-p%C3%A9riton%C3%A9ale</t>
+          <t>Dérivation_ventriculo-péritonéale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dérivation ventriculo-péritonéale (DVP) consiste à drainer par un cathéter le liquide céphalo-rachidien (LCR) des ventricules cérébraux jusqu'à la cavité péritonéale permettant de faire une évacuation du LCR jusqu'à la cavité péritonéale où il sera résorbé par le péritoine. Elle est mise en place pour traiter une hypertension intracrânienne dont l'origine peut être l'hydrocéphalie, une tumeur intracrânienne, etc.[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dérivation ventriculo-péritonéale (DVP) consiste à drainer par un cathéter le liquide céphalo-rachidien (LCR) des ventricules cérébraux jusqu'à la cavité péritonéale permettant de faire une évacuation du LCR jusqu'à la cavité péritonéale où il sera résorbé par le péritoine. Elle est mise en place pour traiter une hypertension intracrânienne dont l'origine peut être l'hydrocéphalie, une tumeur intracrânienne, etc.
 Elle est mise en place lors d'une intervention chirurgicale par les neurochirurgiens.
 </t>
         </is>
